--- a/auto_results/templates/legacy reports auto test result.xlsx
+++ b/auto_results/templates/legacy reports auto test result.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
+    <sheet name="OP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Report Module</t>
   </si>
@@ -37,6 +38,9 @@
   </si>
   <si>
     <t>Message</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -385,34 +389,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="28.88671875" customWidth="1"/>
+    <col min="1" max="7" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -420,4 +427,45 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>